--- a/Mail/ChinaUnion_Agent/Template/ImportScore_Star_Template.xlsx
+++ b/Mail/ChinaUnion_Agent/Template/ImportScore_Star_Template.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="20">
   <si>
     <t>代理商编号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -92,6 +92,10 @@
   </si>
   <si>
     <t>P011</t>
+  </si>
+  <si>
+    <t>本月积分</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -123,7 +127,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -146,13 +150,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -164,6 +179,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1046,10 +1064,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F12"/>
+  <dimension ref="A1:G12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+      <selection activeCell="G2" sqref="G2:G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1058,7 +1076,7 @@
     <col min="2" max="3" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A1" s="5" t="s">
         <v>5</v>
       </c>
@@ -1077,8 +1095,11 @@
       <c r="F1" s="5" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G1" s="7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A2" s="6">
         <v>201506</v>
       </c>
@@ -1097,8 +1118,11 @@
       <c r="F2" s="5">
         <v>200</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G2" s="5">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A3" s="6">
         <v>201506</v>
       </c>
@@ -1117,8 +1141,11 @@
       <c r="F3" s="5">
         <v>201</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G3" s="5">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A4" s="6">
         <v>201506</v>
       </c>
@@ -1137,8 +1164,11 @@
       <c r="F4" s="5">
         <v>202</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G4" s="5">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A5" s="6">
         <v>201506</v>
       </c>
@@ -1157,8 +1187,11 @@
       <c r="F5" s="5">
         <v>203</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G5" s="5">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A6" s="6">
         <v>201506</v>
       </c>
@@ -1177,8 +1210,11 @@
       <c r="F6" s="5">
         <v>204</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G6" s="5">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A7" s="6">
         <v>201506</v>
       </c>
@@ -1197,8 +1233,11 @@
       <c r="F7" s="5">
         <v>205</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G7" s="5">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A8" s="6">
         <v>201506</v>
       </c>
@@ -1217,8 +1256,11 @@
       <c r="F8" s="5">
         <v>206</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G8" s="5">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A9" s="6">
         <v>201506</v>
       </c>
@@ -1237,8 +1279,11 @@
       <c r="F9" s="5">
         <v>207</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G9" s="5">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A10" s="6">
         <v>201506</v>
       </c>
@@ -1257,8 +1302,11 @@
       <c r="F10" s="5">
         <v>208</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G10" s="5">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A11" s="6">
         <v>201506</v>
       </c>
@@ -1277,8 +1325,11 @@
       <c r="F11" s="5">
         <v>209</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G11" s="5">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A12" s="6">
         <v>201506</v>
       </c>
@@ -1295,6 +1346,9 @@
         <v>18</v>
       </c>
       <c r="F12" s="5">
+        <v>210</v>
+      </c>
+      <c r="G12" s="5">
         <v>210</v>
       </c>
     </row>
